--- a/PRISMA/Agro/docs/Pasta1.xlsx
+++ b/PRISMA/Agro/docs/Pasta1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Desktop\SENAI\Senai2022\PRISMA\Agro\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B97C28-D23A-45A8-9C5C-7DDCB12356D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DFF198-7443-4E45-A0C4-13CAC2A732B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14855311-F69E-4A5C-8BF4-409A0B16B887}"/>
   </bookViews>
@@ -138,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,18 +184,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFE6A8FA"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFE6A8FA"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -272,7 +277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -343,11 +348,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -361,9 +379,28 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,6 +420,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,36 +441,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,7 +778,7 @@
   <dimension ref="A1:AH36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="B9" sqref="B9:AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,173 +788,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
     </row>
     <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="26">
+      <c r="A5" s="25"/>
+      <c r="B5" s="10">
         <v>16</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="10">
         <v>17</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="10">
         <v>18</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="10">
         <v>19</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="10">
         <v>20</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="10">
         <v>21</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="10">
         <v>22</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="10">
         <v>23</v>
       </c>
       <c r="J5" s="2">
@@ -946,7 +969,7 @@
       <c r="M5" s="2">
         <v>27</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="10">
         <v>28</v>
       </c>
       <c r="O5" s="3">
@@ -997,54 +1020,54 @@
       <c r="AD5" s="3">
         <v>16</v>
       </c>
-      <c r="AE5" s="27">
+      <c r="AE5" s="11">
         <v>17</v>
       </c>
-      <c r="AF5" s="27">
+      <c r="AF5" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1077,10 +1100,10 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="5"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1113,43 +1136,43 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="1"/>
@@ -1185,7 +1208,7 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="1"/>
@@ -1221,7 +1244,7 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="1"/>
@@ -1229,7 +1252,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="23"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="5"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1257,7 +1280,7 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1"/>
@@ -1293,43 +1316,43 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="20"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="30"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1"/>
@@ -1365,7 +1388,7 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="1"/>
@@ -1378,10 +1401,10 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1401,7 +1424,7 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
@@ -1437,7 +1460,7 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1"/>
@@ -1473,43 +1496,43 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="20"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="30"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1"/>
@@ -1545,7 +1568,7 @@
       <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="1"/>
@@ -1560,8 +1583,8 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1581,7 +1604,7 @@
       <c r="AF21" s="1"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="1"/>
@@ -1617,7 +1640,7 @@
       <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="1"/>
@@ -1653,7 +1676,7 @@
       <c r="AF23" s="1"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1"/>
@@ -1689,43 +1712,43 @@
       <c r="AF24" s="1"/>
     </row>
     <row r="25" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="20"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="30"/>
     </row>
     <row r="26" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1"/>
@@ -1761,7 +1784,7 @@
       <c r="AF26" s="1"/>
     </row>
     <row r="27" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="1"/>
@@ -1797,7 +1820,7 @@
       <c r="AF27" s="1"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="1"/>
@@ -1833,43 +1856,43 @@
       <c r="AF28" s="1"/>
     </row>
     <row r="29" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="20"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="30"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="1"/>
@@ -1880,7 +1903,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="36"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -1905,54 +1928,56 @@
       <c r="AF30" s="1"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="AH34" s="35"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="AH35" s="9"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="AH35" s="35"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="35"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="AH36" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B3:N4"/>
+    <mergeCell ref="O3:AF4"/>
+    <mergeCell ref="B1:AF2"/>
+    <mergeCell ref="B14:AF14"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B6:AF6"/>
     <mergeCell ref="B9:AF9"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B3:N4"/>
-    <mergeCell ref="O3:AF4"/>
-    <mergeCell ref="B1:AF2"/>
-    <mergeCell ref="B14:AF14"/>
     <mergeCell ref="B19:AF19"/>
     <mergeCell ref="B25:AF25"/>
     <mergeCell ref="B29:AF29"/>

--- a/PRISMA/Agro/docs/Pasta1.xlsx
+++ b/PRISMA/Agro/docs/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Desktop\SENAI\Senai2022\PRISMA\Agro\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DFF198-7443-4E45-A0C4-13CAC2A732B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265A4B05-B64E-457E-A384-5AA4D3F8188E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14855311-F69E-4A5C-8BF4-409A0B16B887}"/>
   </bookViews>
@@ -365,18 +365,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -390,6 +386,32 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,42 +439,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,9 +457,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5D5D"/>
       <color rgb="FFC9B0FA"/>
       <color rgb="FFE6A8FA"/>
-      <color rgb="FFFF5D5D"/>
     </mruColors>
   </colors>
   <extLst>
@@ -775,299 +770,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA24F860-8A46-4C00-8B5B-897AE7B2F476}">
-  <dimension ref="A1:AH36"/>
+  <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:AF9"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.28515625" customWidth="1"/>
     <col min="2" max="32" width="3.7109375" customWidth="1"/>
+    <col min="33" max="33" width="1.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
     </row>
     <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="10">
+      <c r="A5" s="18"/>
+      <c r="B5" s="8">
         <v>16</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>17</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>18</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>19</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>20</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>21</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <v>22</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="8">
         <v>23</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="8">
         <v>24</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="8">
         <v>25</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="8">
         <v>26</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="8">
         <v>27</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="8">
         <v>28</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <v>1</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <v>2</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="2">
         <v>3</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="2">
         <v>4</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="2">
         <v>5</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="2">
         <v>6</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="2">
         <v>7</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="2">
         <v>8</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="2">
         <v>9</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5" s="2">
         <v>10</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5" s="2">
         <v>11</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Z5" s="2">
         <v>12</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AA5" s="2">
         <v>13</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AB5" s="2">
         <v>14</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AC5" s="2">
         <v>15</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AD5" s="2">
         <v>16</v>
       </c>
-      <c r="AE5" s="11">
+      <c r="AE5" s="9">
         <v>17</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="AF5" s="9">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1100,11 +1096,11 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1136,48 +1132,48 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1208,14 +1204,14 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1244,16 +1240,16 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1280,17 +1276,17 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1316,56 +1312,56 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="30"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="23"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1388,23 +1384,23 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1424,25 +1420,25 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -1460,26 +1456,26 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -1496,55 +1492,55 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="30"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="23"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="1"/>
@@ -1568,23 +1564,23 @@
       <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1604,7 +1600,7 @@
       <c r="AF21" s="1"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="1"/>
@@ -1612,20 +1608,20 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
@@ -1640,7 +1636,7 @@
       <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="1"/>
@@ -1648,20 +1644,20 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
@@ -1676,7 +1672,7 @@
       <c r="AF23" s="1"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1"/>
@@ -1684,22 +1680,22 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="7"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="5"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
@@ -1712,66 +1708,66 @@
       <c r="AF24" s="1"/>
     </row>
     <row r="25" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="30"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="23"/>
     </row>
     <row r="26" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="4"/>
+      <c r="V26" s="3"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
@@ -1784,34 +1780,34 @@
       <c r="AF26" s="1"/>
     </row>
     <row r="27" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="7"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="5"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
@@ -1820,79 +1816,79 @@
       <c r="AF27" s="1"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
     </row>
     <row r="29" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="30"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="23"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="1"/>
@@ -1903,16 +1899,16 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="36"/>
+      <c r="J30" s="15"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
@@ -1922,56 +1918,49 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
-      <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
     </row>
+    <row r="31" spans="1:32" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="AH34" s="35"/>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="29"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="AH35" s="35"/>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="AH36" s="35"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B3:N4"/>
-    <mergeCell ref="O3:AF4"/>
-    <mergeCell ref="B1:AF2"/>
-    <mergeCell ref="B14:AF14"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B34:C34"/>
@@ -1982,6 +1971,11 @@
     <mergeCell ref="B25:AF25"/>
     <mergeCell ref="B29:AF29"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B3:N4"/>
+    <mergeCell ref="O3:AF4"/>
+    <mergeCell ref="B1:AF2"/>
+    <mergeCell ref="B14:AF14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PRISMA/Agro/docs/Pasta1.xlsx
+++ b/PRISMA/Agro/docs/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Desktop\SENAI\Senai2022\PRISMA\Agro\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265A4B05-B64E-457E-A384-5AA4D3F8188E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A22904A-34A6-4117-BBC5-B7163B21BE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14855311-F69E-4A5C-8BF4-409A0B16B887}"/>
   </bookViews>
@@ -394,60 +394,60 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,7 +773,7 @@
   <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,151 +784,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
     </row>
     <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="8">
         <v>16</v>
       </c>
@@ -1027,37 +1027,37 @@
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -1135,37 +1135,37 @@
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -1315,37 +1315,37 @@
       <c r="A14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="23"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="31"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -1436,9 +1436,9 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -1495,37 +1495,37 @@
       <c r="A19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="23"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="31"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
@@ -1617,8 +1617,8 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
@@ -1654,8 +1654,8 @@
       <c r="N23" s="1"/>
       <c r="O23" s="5"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="1"/>
@@ -1711,37 +1711,37 @@
       <c r="A25" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="22"/>
-      <c r="AE25" s="22"/>
-      <c r="AF25" s="23"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="31"/>
     </row>
     <row r="26" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
@@ -1855,37 +1855,37 @@
       <c r="A29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="22"/>
-      <c r="AE29" s="22"/>
-      <c r="AF29" s="23"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="30"/>
+      <c r="AE29" s="30"/>
+      <c r="AF29" s="31"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
@@ -1928,39 +1928,44 @@
       <c r="A32" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B3:N4"/>
+    <mergeCell ref="O3:AF4"/>
+    <mergeCell ref="B1:AF2"/>
+    <mergeCell ref="B14:AF14"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B34:C34"/>
@@ -1971,11 +1976,6 @@
     <mergeCell ref="B25:AF25"/>
     <mergeCell ref="B29:AF29"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B3:N4"/>
-    <mergeCell ref="O3:AF4"/>
-    <mergeCell ref="B1:AF2"/>
-    <mergeCell ref="B14:AF14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PRISMA/Agro/docs/Pasta1.xlsx
+++ b/PRISMA/Agro/docs/Pasta1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Desktop\SENAI\Senai2022\PRISMA\Agro\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A22904A-34A6-4117-BBC5-B7163B21BE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EAECC2-3397-4824-9CB5-479143272357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14855311-F69E-4A5C-8BF4-409A0B16B887}"/>
   </bookViews>
@@ -365,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -394,10 +394,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,30 +442,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,7 +775,7 @@
   <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,151 +786,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
     </row>
     <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="8">
         <v>16</v>
       </c>
@@ -1027,37 +1029,37 @@
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -1135,37 +1137,37 @@
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -1315,37 +1317,37 @@
       <c r="A14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="31"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="24"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -1436,9 +1438,9 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -1474,8 +1476,8 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -1495,37 +1497,37 @@
       <c r="A19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="31"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="24"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
@@ -1617,8 +1619,8 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
@@ -1654,8 +1656,8 @@
       <c r="N23" s="1"/>
       <c r="O23" s="5"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="1"/>
@@ -1692,9 +1694,9 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="5"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="37"/>
       <c r="V24" s="5"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
@@ -1711,37 +1713,37 @@
       <c r="A25" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="31"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="24"/>
     </row>
     <row r="26" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
@@ -1855,37 +1857,37 @@
       <c r="A29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="30"/>
-      <c r="AF29" s="31"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="24"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
@@ -1928,44 +1930,39 @@
       <c r="A32" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B3:N4"/>
-    <mergeCell ref="O3:AF4"/>
-    <mergeCell ref="B1:AF2"/>
-    <mergeCell ref="B14:AF14"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B34:C34"/>
@@ -1976,6 +1973,11 @@
     <mergeCell ref="B25:AF25"/>
     <mergeCell ref="B29:AF29"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B3:N4"/>
+    <mergeCell ref="O3:AF4"/>
+    <mergeCell ref="B1:AF2"/>
+    <mergeCell ref="B14:AF14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PRISMA/Agro/docs/Pasta1.xlsx
+++ b/PRISMA/Agro/docs/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Desktop\SENAI\Senai2022\PRISMA\Agro\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EAECC2-3397-4824-9CB5-479143272357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693C0C07-BB78-465C-876D-5C58E1384849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14855311-F69E-4A5C-8BF4-409A0B16B887}"/>
   </bookViews>
@@ -203,7 +203,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +273,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC9B0FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC1C1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,12 +377,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -397,6 +406,51 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -406,51 +460,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,6 +474,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC1C1"/>
       <color rgb="FFFF5D5D"/>
       <color rgb="FFC9B0FA"/>
       <color rgb="FFE6A8FA"/>
@@ -775,7 +791,7 @@
   <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+      <selection activeCell="AI24" sqref="AI24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,286 +802,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
     </row>
     <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="8">
+      <c r="A5" s="35"/>
+      <c r="B5" s="7">
         <v>16</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>17</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>18</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>19</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>20</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>21</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>22</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>23</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>24</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>25</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>26</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>27</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>28</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="8">
         <v>1</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="8">
         <v>2</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="8">
         <v>3</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="8">
         <v>4</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="39">
         <v>5</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="39">
         <v>6</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="39">
         <v>7</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="38">
         <v>8</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="38">
         <v>9</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="38">
         <v>10</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="38">
         <v>11</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="38">
         <v>12</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="38">
         <v>13</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="38">
         <v>14</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AC5" s="38">
         <v>15</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5" s="38">
         <v>16</v>
       </c>
-      <c r="AE5" s="9">
+      <c r="AE5" s="8">
         <v>17</v>
       </c>
-      <c r="AF5" s="9">
+      <c r="AF5" s="8">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1098,11 +1114,11 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1134,48 +1150,48 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1206,14 +1222,14 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1242,16 +1258,16 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1278,17 +1294,17 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1314,56 +1330,56 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="24"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="32"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1386,23 +1402,23 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1422,25 +1438,25 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -1458,26 +1474,26 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -1494,57 +1510,57 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="24"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="32"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1566,23 +1582,23 @@
       <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1602,7 +1618,7 @@
       <c r="AF21" s="1"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="1"/>
@@ -1610,20 +1626,20 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
@@ -1638,7 +1654,7 @@
       <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="1"/>
@@ -1646,20 +1662,20 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
@@ -1674,7 +1690,7 @@
       <c r="AF23" s="1"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1"/>
@@ -1682,22 +1698,22 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="5"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="4"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
@@ -1710,66 +1726,66 @@
       <c r="AF24" s="1"/>
     </row>
     <row r="25" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="24"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="32"/>
     </row>
     <row r="26" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="3"/>
+      <c r="V26" s="2"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
@@ -1782,34 +1798,34 @@
       <c r="AF26" s="1"/>
     </row>
     <row r="27" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="5"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="4"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
@@ -1818,79 +1834,79 @@
       <c r="AF27" s="1"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
     </row>
     <row r="29" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="23"/>
-      <c r="AC29" s="23"/>
-      <c r="AD29" s="23"/>
-      <c r="AE29" s="23"/>
-      <c r="AF29" s="24"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="31"/>
+      <c r="AE29" s="31"/>
+      <c r="AF29" s="32"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="1"/>
@@ -1901,16 +1917,16 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="15"/>
+      <c r="J30" s="14"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
@@ -1920,49 +1936,54 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
     </row>
     <row r="31" spans="1:32" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B3:N4"/>
+    <mergeCell ref="O3:AF4"/>
+    <mergeCell ref="B1:AF2"/>
+    <mergeCell ref="B14:AF14"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B34:C34"/>
@@ -1973,11 +1994,6 @@
     <mergeCell ref="B25:AF25"/>
     <mergeCell ref="B29:AF29"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B3:N4"/>
-    <mergeCell ref="O3:AF4"/>
-    <mergeCell ref="B1:AF2"/>
-    <mergeCell ref="B14:AF14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PRISMA/Agro/docs/Pasta1.xlsx
+++ b/PRISMA/Agro/docs/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Desktop\SENAI\Senai2022\PRISMA\Agro\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693C0C07-BB78-465C-876D-5C58E1384849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787738C5-D414-4D35-94CF-11DF2B096091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14855311-F69E-4A5C-8BF4-409A0B16B887}"/>
   </bookViews>
@@ -284,12 +284,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -373,11 +373,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -406,9 +415,27 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,34 +463,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -788,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA24F860-8A46-4C00-8B5B-897AE7B2F476}">
-  <dimension ref="A1:AF36"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI24" sqref="AI24"/>
+      <selection activeCell="AI27" sqref="AI27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,152 +816,156 @@
     <col min="33" max="33" width="1.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="40"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="40"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-    </row>
-    <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="40"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="40"/>
+    </row>
+    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
       <c r="B5" s="7">
         <v>16</v>
       </c>
@@ -998,40 +1017,40 @@
       <c r="R5" s="8">
         <v>4</v>
       </c>
-      <c r="S5" s="39">
+      <c r="S5" s="18">
         <v>5</v>
       </c>
-      <c r="T5" s="39">
+      <c r="T5" s="18">
         <v>6</v>
       </c>
-      <c r="U5" s="39">
+      <c r="U5" s="18">
         <v>7</v>
       </c>
-      <c r="V5" s="38">
+      <c r="V5" s="8">
         <v>8</v>
       </c>
-      <c r="W5" s="38">
+      <c r="W5" s="39">
         <v>9</v>
       </c>
-      <c r="X5" s="38">
+      <c r="X5" s="39">
         <v>10</v>
       </c>
-      <c r="Y5" s="38">
+      <c r="Y5" s="39">
         <v>11</v>
       </c>
-      <c r="Z5" s="38">
+      <c r="Z5" s="18">
         <v>12</v>
       </c>
-      <c r="AA5" s="38">
+      <c r="AA5" s="18">
         <v>13</v>
       </c>
-      <c r="AB5" s="38">
+      <c r="AB5" s="18">
         <v>14</v>
       </c>
-      <c r="AC5" s="38">
+      <c r="AC5" s="18">
         <v>15</v>
       </c>
-      <c r="AD5" s="38">
+      <c r="AD5" s="18">
         <v>16</v>
       </c>
       <c r="AE5" s="8">
@@ -1040,44 +1059,46 @@
       <c r="AF5" s="8">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG5" s="40"/>
+    </row>
+    <row r="6" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="40"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -1112,8 +1133,9 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG7" s="40"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
@@ -1148,44 +1170,46 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-    </row>
-    <row r="9" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG8" s="40"/>
+    </row>
+    <row r="9" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="40"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
@@ -1220,8 +1244,9 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG10" s="40"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
@@ -1256,8 +1281,9 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG11" s="40"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -1292,8 +1318,9 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG12" s="40"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
@@ -1328,44 +1355,46 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-    </row>
-    <row r="14" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG13" s="40"/>
+    </row>
+    <row r="14" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="32"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="40"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
@@ -1400,8 +1429,9 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG15" s="40"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>26</v>
       </c>
@@ -1436,8 +1466,9 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG16" s="40"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
@@ -1472,8 +1503,9 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG17" s="40"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
@@ -1508,44 +1540,46 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-    </row>
-    <row r="19" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG18" s="40"/>
+    </row>
+    <row r="19" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="32"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="40"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>25</v>
       </c>
@@ -1580,8 +1614,9 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG20" s="40"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>26</v>
       </c>
@@ -1616,8 +1651,9 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG21" s="40"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>14</v>
       </c>
@@ -1652,8 +1688,9 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG22" s="40"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>15</v>
       </c>
@@ -1688,8 +1725,9 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG23" s="40"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>18</v>
       </c>
@@ -1710,9 +1748,9 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="19"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="37"/>
       <c r="V24" s="4"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
@@ -1724,44 +1762,46 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
-    </row>
-    <row r="25" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG24" s="40"/>
+    </row>
+    <row r="25" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="32"/>
-    </row>
-    <row r="26" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="24"/>
+      <c r="AG25" s="40"/>
+    </row>
+    <row r="26" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>12</v>
       </c>
@@ -1785,7 +1825,7 @@
       <c r="S26" s="4"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="2"/>
+      <c r="V26" s="3"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
@@ -1796,8 +1836,9 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
-    </row>
-    <row r="27" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG26" s="40"/>
+    </row>
+    <row r="27" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>19</v>
       </c>
@@ -1822,9 +1863,9 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
@@ -1832,8 +1873,9 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG27" s="40"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>20</v>
       </c>
@@ -1868,44 +1910,46 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
-    </row>
-    <row r="29" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG28" s="40"/>
+    </row>
+    <row r="29" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="32"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="40"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>13</v>
       </c>
@@ -1940,50 +1984,81 @@
       <c r="AD30" s="2"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
-    </row>
-    <row r="31" spans="1:32" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG30" s="40"/>
+    </row>
+    <row r="31" spans="1:33" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
+      <c r="AA31" s="41"/>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="41"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="41"/>
+      <c r="AG31" s="40"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B3:N4"/>
-    <mergeCell ref="O3:AF4"/>
-    <mergeCell ref="B1:AF2"/>
-    <mergeCell ref="B14:AF14"/>
+  <mergeCells count="17">
+    <mergeCell ref="AG1:AG31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B34:C34"/>
@@ -1994,6 +2069,12 @@
     <mergeCell ref="B25:AF25"/>
     <mergeCell ref="B29:AF29"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A31:AF31"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B3:N4"/>
+    <mergeCell ref="O3:AF4"/>
+    <mergeCell ref="B1:AF2"/>
+    <mergeCell ref="B14:AF14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
